--- a/words.xlsx
+++ b/words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxma\Desktop\mem_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535458D-8773-4670-8E8A-A65994C1601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8BBDE-7EF6-4FB3-9477-E376A440E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="1176" windowWidth="17280" windowHeight="10140" xr2:uid="{B07B23AB-5489-4375-8C82-38536053C403}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qeqweqwe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA0446E-1160-4AED-B574-9A405FDDFC5F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -549,6 +557,14 @@
         <v>12345</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
